--- a/估值.xlsx
+++ b/估值.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuzifeng/GitHub/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90011BC6-098F-1846-8A5D-1A49A72037AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938E8EF5-4157-1C4F-8067-905D761F2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" xr2:uid="{A2E97DB3-A1FE-374A-A01A-FD38C27BDC7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>价格</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>000002</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>600585</t>
+  </si>
+  <si>
+    <t>浙江美大</t>
+  </si>
+  <si>
+    <t>002677</t>
   </si>
 </sst>
 </file>
@@ -78,7 +90,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -122,7 +134,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1268B170-F546-8548-9390-ABAFDDF82B0F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +504,7 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>20.13</v>
       </c>
       <c r="E2">
@@ -514,6 +527,393 @@
         <f>(F2+G2)/(H2*I2)</f>
         <v>9.1888797732696901</v>
       </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>44456</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
+        <v>46.63</v>
+      </c>
+      <c r="E3">
+        <v>52.99</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="0">D3*E3</f>
+        <v>2470.9237000000003</v>
+      </c>
+      <c r="G3">
+        <v>-517</v>
+      </c>
+      <c r="H3">
+        <v>1762</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J26" si="1">(F3+G3)/(H3*I3)</f>
+        <v>7.3928251986379125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>44460</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="E4">
+        <v>6.46</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>96.254000000000005</v>
+      </c>
+      <c r="G4">
+        <v>4.05</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>21.852723311546843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="J23" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="J24" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="J25" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="J26" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/估值.xlsx
+++ b/估值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuzifeng/GitHub/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938E8EF5-4157-1C4F-8067-905D761F2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96BE9A-BF31-5F43-9796-8FC68CD667BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" xr2:uid="{A2E97DB3-A1FE-374A-A01A-FD38C27BDC7D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>价格</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>002677</t>
+  </si>
+  <si>
+    <t>002884</t>
+  </si>
+  <si>
+    <t>凌霄泵业</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +502,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>44453</v>
+        <v>44501</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -505,14 +511,14 @@
         <v>4</v>
       </c>
       <c r="D2" s="7">
-        <v>20.13</v>
+        <v>17.82</v>
       </c>
       <c r="E2">
         <v>116.25</v>
       </c>
       <c r="F2">
         <f>D2*E2</f>
-        <v>2340.1124999999997</v>
+        <v>2071.5749999999998</v>
       </c>
       <c r="G2">
         <v>740</v>
@@ -525,12 +531,12 @@
       </c>
       <c r="J2" s="2">
         <f>(F2+G2)/(H2*I2)</f>
-        <v>9.1888797732696901</v>
+        <v>8.3877535799522676</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>44456</v>
+        <v>44501</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -539,14 +545,14 @@
         <v>12</v>
       </c>
       <c r="D3" s="7">
-        <v>46.63</v>
+        <v>37.82</v>
       </c>
       <c r="E3">
         <v>52.99</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F22" si="0">D3*E3</f>
-        <v>2470.9237000000003</v>
+        <v>2004.0818000000002</v>
       </c>
       <c r="G3">
         <v>-517</v>
@@ -559,12 +565,12 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J26" si="1">(F3+G3)/(H3*I3)</f>
-        <v>7.3928251986379125</v>
+        <v>5.6264918653045788</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>44460</v>
+        <v>44501</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -573,14 +579,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>14.9</v>
+        <v>16.04</v>
       </c>
       <c r="E4">
         <v>6.46</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>96.254000000000005</v>
+        <v>103.61839999999999</v>
       </c>
       <c r="G4">
         <v>4.05</v>
@@ -593,21 +599,41 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>21.852723311546843</v>
+        <v>23.457167755991286</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="6">
+        <v>44501</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>22.28</v>
+      </c>
+      <c r="E5">
+        <v>3.56</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>79.316800000000001</v>
+      </c>
+      <c r="G5">
+        <v>-14</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>23.32742857142857</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
